--- a/ATMP Sheets/GTMP/TX200-TR101.xlsx
+++ b/ATMP Sheets/GTMP/TX200-TR101.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>ATMP Cover Sheet</t>
   </si>
@@ -91,6 +91,9 @@
     <t>Phase 1/2</t>
   </si>
   <si>
+    <t>Trial Status</t>
+  </si>
+  <si>
     <t>Regulatory Information</t>
   </si>
   <si>
@@ -113,9 +116,6 @@
   </si>
   <si>
     <t>Phase</t>
-  </si>
-  <si>
-    <t>Trial Status</t>
   </si>
   <si>
     <t>ongoing (23.09.2024)</t>
@@ -280,12 +280,21 @@
   <si>
     <t>Expert statement: what was the biggest hurdle experienced?</t>
   </si>
+  <si>
+    <t>Status Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t>in Progress</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -308,6 +317,11 @@
       <name val="Aptos Narrow"/>
     </font>
     <font>
+      <sz val="13.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0563C1"/>
@@ -318,6 +332,15 @@
       <sz val="11.0"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="13.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -352,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -371,17 +394,26 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1036,7 +1068,9 @@
       <c r="AA13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
+      <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1065,9 +1099,7 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1096,15 +1128,11 @@
       <c r="AA15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1131,14 +1159,14 @@
       <c r="AA16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>30</v>
+      <c r="A17" s="7" t="s">
+        <v>28</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>31</v>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1166,13 +1194,15 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1199,15 +1229,13 @@
       <c r="AA18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>35</v>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1234,14 +1262,16 @@
       <c r="AA19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>37</v>
+      <c r="A20" s="7" t="s">
+        <v>26</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="8" t="s">
-        <v>38</v>
+      <c r="B20" s="8" t="s">
+        <v>35</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1267,16 +1297,14 @@
       <c r="AA20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>39</v>
+      <c r="A21" s="7" t="s">
+        <v>37</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="9" t="s">
+        <v>38</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1302,14 +1330,14 @@
       <c r="AA21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>42</v>
+      <c r="A22" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
+      <c r="C22" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1337,11 +1365,15 @@
       <c r="AA22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>44</v>
+      <c r="A23" s="7" t="s">
+        <v>42</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1368,10 +1400,10 @@
       <c r="AA23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="s">
-        <v>45</v>
+      <c r="A24" s="7" t="s">
+        <v>44</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1399,8 +1431,8 @@
       <c r="AA24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="s">
-        <v>46</v>
+      <c r="A25" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1430,8 +1462,8 @@
       <c r="AA25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="s">
-        <v>47</v>
+      <c r="A26" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1461,15 +1493,11 @@
       <c r="AA26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="s">
-        <v>48</v>
+      <c r="A27" s="7" t="s">
+        <v>47</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1496,16 +1524,16 @@
       <c r="AA27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="s">
-        <v>50</v>
+      <c r="A28" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1531,16 +1559,16 @@
       <c r="AA28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="s">
-        <v>53</v>
+      <c r="A29" s="7" t="s">
+        <v>50</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>43</v>
+      <c r="B29" s="4" t="s">
+        <v>51</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>43</v>
+      <c r="C29" s="4" t="s">
+        <v>52</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1566,11 +1594,15 @@
       <c r="AA29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="s">
-        <v>54</v>
+      <c r="A30" s="7" t="s">
+        <v>53</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1597,8 +1629,8 @@
       <c r="AA30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="s">
-        <v>55</v>
+      <c r="A31" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1628,8 +1660,8 @@
       <c r="AA31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="s">
-        <v>56</v>
+      <c r="A32" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1659,8 +1691,8 @@
       <c r="AA32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="s">
-        <v>57</v>
+      <c r="A33" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1690,8 +1722,8 @@
       <c r="AA33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="s">
-        <v>58</v>
+      <c r="A34" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1721,7 +1753,9 @@
       <c r="AA34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1750,14 +1784,10 @@
       <c r="AA35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="10" t="s">
-        <v>60</v>
-      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1783,14 +1813,14 @@
       <c r="AA36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="s">
-        <v>61</v>
+      <c r="A37" s="1" t="s">
+        <v>59</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>62</v>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="11" t="s">
+        <v>60</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1816,10 +1846,12 @@
       <c r="AA37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="s">
-        <v>63</v>
+      <c r="A38" s="7" t="s">
+        <v>61</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1847,8 +1879,8 @@
       <c r="AA38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="s">
-        <v>64</v>
+      <c r="A39" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1878,8 +1910,8 @@
       <c r="AA39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="s">
-        <v>65</v>
+      <c r="A40" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1909,8 +1941,8 @@
       <c r="AA40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="s">
-        <v>66</v>
+      <c r="A41" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1940,8 +1972,8 @@
       <c r="AA41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="s">
-        <v>67</v>
+      <c r="A42" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1971,12 +2003,10 @@
       <c r="AA42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="s">
-        <v>68</v>
+      <c r="A43" s="7" t="s">
+        <v>67</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2004,10 +2034,12 @@
       <c r="AA43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="s">
-        <v>70</v>
+      <c r="A44" s="7" t="s">
+        <v>68</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2035,8 +2067,8 @@
       <c r="AA44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="s">
-        <v>71</v>
+      <c r="A45" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2066,8 +2098,8 @@
       <c r="AA45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="s">
-        <v>72</v>
+      <c r="A46" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2097,8 +2129,8 @@
       <c r="AA46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="s">
-        <v>73</v>
+      <c r="A47" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2128,8 +2160,8 @@
       <c r="AA47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="s">
-        <v>74</v>
+      <c r="A48" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2159,8 +2191,8 @@
       <c r="AA48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="s">
-        <v>75</v>
+      <c r="A49" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2190,8 +2222,8 @@
       <c r="AA49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="s">
-        <v>76</v>
+      <c r="A50" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2221,8 +2253,8 @@
       <c r="AA50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="s">
-        <v>77</v>
+      <c r="A51" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2252,8 +2284,8 @@
       <c r="AA51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="s">
-        <v>78</v>
+      <c r="A52" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2283,8 +2315,8 @@
       <c r="AA52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="s">
-        <v>79</v>
+      <c r="A53" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2314,8 +2346,8 @@
       <c r="AA53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="s">
-        <v>80</v>
+      <c r="A54" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2345,8 +2377,8 @@
       <c r="AA54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="s">
-        <v>81</v>
+      <c r="A55" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2376,8 +2408,8 @@
       <c r="AA55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="s">
-        <v>82</v>
+      <c r="A56" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2407,8 +2439,8 @@
       <c r="AA56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="s">
-        <v>83</v>
+      <c r="A57" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2438,7 +2470,9 @@
       <c r="AA57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="2"/>
+      <c r="A58" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2496,8 +2530,10 @@
       <c r="AA59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="13"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2525,8 +2561,12 @@
       <c r="AA60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -29871,10 +29911,39 @@
       <c r="Z1003" s="2"/>
       <c r="AA1003" s="2"/>
     </row>
+    <row r="1004">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+      <c r="AA1004" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D20"/>
-    <hyperlink r:id="rId2" ref="D36"/>
+    <hyperlink r:id="rId1" ref="D21"/>
+    <hyperlink r:id="rId2" ref="D37"/>
   </hyperlinks>
   <drawing r:id="rId3"/>
 </worksheet>
